--- a/Test/TestExcelFiles/TwoBlankLinesBetweenGivenAndWhen/TwoBlankLinesBetweenGivenAndWhen.xlsx
+++ b/Test/TestExcelFiles/TwoBlankLinesBetweenGivenAndWhen/TwoBlankLinesBetweenGivenAndWhen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\Test\TestExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\Test\TestExcelFiles\TwoBlankLinesBetweenGivenAndWhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C9A3CC22-2140-40EF-80E8-C0040C93FBB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C376D79-63B5-4A25-86CE-1D731DF82C86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoBlankLinesBetweenGivenWhen" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>When</t>
   </si>
   <si>
-    <t>Assert</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>This is a faulty specification, as there are two blank lines between the end of the Given section and the start of the When section</t>
+  </si>
+  <si>
+    <t>Then</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -161,6 +161,88 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -507,7 +589,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -549,10 +631,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,57 +642,57 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"Then"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"Given a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"Specification"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="5" operator="beginsWith" text="With Properties">
+    <cfRule type="beginsWith" dxfId="16" priority="5" operator="beginsWith" text="With Properties">
       <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="4" priority="6" operator="endsWith" text=" table of">
+    <cfRule type="endsWith" dxfId="15" priority="6" operator="endsWith" text=" table of">
       <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="3" priority="7" operator="endsWith" text=" of">
+    <cfRule type="endsWith" dxfId="14" priority="7" operator="endsWith" text=" of">
       <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="10">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
